--- a/excel/patientId.xlsx
+++ b/excel/patientId.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\barcode-generator-main\barcode-generator-main\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4215DF7C-E33A-4B9D-A128-89CD8496D491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13356B40-3F4C-4EC6-A57B-74328ED8928B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3DDA2DDD-08D9-4AB3-A1C6-57D9E8C64A57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -37,9 +26,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0000\ 00\ 00"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,9 +55,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,7 +91,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -118,7 +103,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -165,23 +150,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -217,23 +185,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,125 +336,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87348D59-2A29-4059-BEEF-41134DC0610A}">
-  <dimension ref="A1:A20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>11111111</v>
+      <c r="A1">
+        <v>12121212</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>11111112</v>
+      <c r="A2">
+        <v>12121213</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>11111113</v>
+      <c r="A3">
+        <v>12121214</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>11111114</v>
+      <c r="A4">
+        <v>12121215</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>11111115</v>
+      <c r="A5">
+        <v>12121216</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>11111116</v>
+      <c r="A6">
+        <v>12121217</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>11111117</v>
+      <c r="A7">
+        <v>12121218</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>11111118</v>
+      <c r="A8">
+        <v>12121219</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>11111119</v>
+      <c r="A9">
+        <v>12121220</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>11111120</v>
+      <c r="A10">
+        <v>12121221</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>11111121</v>
+      <c r="A11">
+        <v>12121222</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11111122</v>
+      <c r="A12">
+        <v>12121223</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11111123</v>
+      <c r="A13">
+        <v>12121224</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>11111124</v>
+      <c r="A14">
+        <v>12121225</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>11111125</v>
+      <c r="A15">
+        <v>12121226</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>11111126</v>
+      <c r="A16">
+        <v>12121227</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>11111127</v>
+      <c r="A17">
+        <v>12121228</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>11111128</v>
+      <c r="A18">
+        <v>12121229</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>11111129</v>
+      <c r="A19">
+        <v>12121230</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>11111130</v>
+      <c r="A20">
+        <v>12121231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>12121232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>12121233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12121234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12121235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12121236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12121237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12121238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>12121239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>12121240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12121241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>12121242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>12121243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>12121244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>12121245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12121246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>12121247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>12121248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>12121249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>12121250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>12121251</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Invalid Characters. Please input Numbers only." promptTitle="Patient ID" prompt="Input 8 digit Numbers ONLY" sqref="A1:A1048576" xr:uid="{83DD7540-BC58-4EF7-9D6B-72C8E7949F5A}">
-      <formula1>AND(ISNUMBER(--SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A1," ",""),"-",""),"/","")),LEN(A1)=9)</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>